--- a/data/xlsx/03092019.xlsx
+++ b/data/xlsx/03092019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0562C5-17E1-1543-BA4C-EB896BF9AA6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E26BF-155B-C049-A82E-6A6310B28D68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -325,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +670,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -707,7 +710,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -733,7 +736,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -759,7 +762,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -785,7 +788,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -811,7 +814,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -863,7 +866,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
@@ -941,7 +944,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -993,7 +996,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>49</v>
@@ -1045,7 +1048,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
@@ -1123,7 +1126,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>61</v>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>63</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
